--- a/gis_data_entry.xlsx
+++ b/gis_data_entry.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="control" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>MZBZ</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -433,7 +436,7 @@
   <dimension ref="A5:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19:F19"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +476,9 @@
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
@@ -522,6 +528,18 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>42345</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -530,6 +548,18 @@
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>42345</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -557,6 +587,18 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42345</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">

--- a/gis_data_entry.xlsx
+++ b/gis_data_entry.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="control" sheetId="1" r:id="rId1"/>
+    <sheet name="CONTROL" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>MZBZ</t>
   </si>
@@ -86,6 +86,21 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>HLDG</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>NAVAIDS</t>
+  </si>
+  <si>
+    <t>WAYPOINTS</t>
   </si>
 </sst>
 </file>
@@ -101,12 +116,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,11 +150,35 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,239 +478,266 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:F19"/>
+  <dimension ref="A5:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="2">
+      <c r="J6" s="2">
         <v>42345</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
+      <c r="J11" s="2">
         <v>42345</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="2">
+      <c r="J12" s="2">
         <v>42345</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="2">
+      <c r="J14" s="2">
         <v>42345</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:C19">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>